--- a/z0bug_odoo/build/lib/z0bug_odoo/data/account_rc_type.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/account_rc_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
     <t xml:space="preserve">company_id</t>
   </si>
   <si>
@@ -55,7 +58,10 @@
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Reverse chareg locale</t>
+    <t xml:space="preserve">Reverse charge locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usare per RC locale (italia)</t>
   </si>
   <si>
     <t xml:space="preserve">selfinvoice</t>
@@ -67,25 +73,31 @@
     <t xml:space="preserve">z0bug.partner_mycompany</t>
   </si>
   <si>
-    <t xml:space="preserve">zobug._journal_arc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zobug.jou_gc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_490050</t>
+    <t xml:space="preserve">external.ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.GC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">external.490050</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_2</t>
   </si>
   <si>
-    <t xml:space="preserve">Reverse chareg EU</t>
+    <t xml:space="preserve">Reverse charge Extra-EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usare per RC estero no EU</t>
   </si>
   <si>
     <t xml:space="preserve">l10n_it_reverse_charge.account_rc_type_3</t>
   </si>
   <si>
-    <t xml:space="preserve">Reverse chareg Extra-EU</t>
+    <t xml:space="preserve">Reverse charge EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usare per RC interna EU</t>
   </si>
 </sst>
 </file>
@@ -95,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,6 +128,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,8 +179,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,23 +205,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1015" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1016" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -232,92 +256,104 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
+      </c>
       <c r="H4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
